--- a/Output/Shipbuilding/ROKJapanDOD_Shipbuilding_Contracts.xlsx
+++ b/Output/Shipbuilding/ROKJapanDOD_Shipbuilding_Contracts.xlsx
@@ -159,9 +159,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -197,11 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,79 +511,79 @@
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL1" t="s">
         <v>25</v>
@@ -597,47 +599,45 @@
       <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="n">
-        <v>64015</v>
-      </c>
-      <c r="V2" s="3" t="n">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="n">
+        <v>1879284</v>
+      </c>
+      <c r="U2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="V2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="W2" s="4" t="n">
         <v>85903.5197</v>
       </c>
-      <c r="Y2" s="3" t="n">
-        <v>133379.8889</v>
-      </c>
-      <c r="Z2" s="3" t="n">
+      <c r="X2" s="4" t="n">
+        <v>-49423.2869</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>48636.7197</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -647,45 +647,83 @@
         <f>M3</f>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="n">
-        <v>1815269</v>
-      </c>
-      <c r="V3" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>126572</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="n">
+        <v>46300</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>75895</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>72237</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>20287</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1195469.25</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>34294</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>111571.7305</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>125827.5689</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>17152.62</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>120330.3994</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>556750.4825</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3287.97</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>267798.08</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>32330.74</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>100663.3086</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>79695.789</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>793324.1094</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>132345.2001</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>963989.5035</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>315937.9381</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>387828.4467</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>869014.6978</v>
+      </c>
+      <c r="AK3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3" t="n">
-        <v>-182803.1758</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -695,43 +733,85 @@
         <f>M4</f>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3" t="n">
-        <v>16004</v>
-      </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3" t="n">
-        <v>22840</v>
-      </c>
-      <c r="AK4" s="3" t="n">
-        <v>55881.8516</v>
-      </c>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>40629864</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>51573409</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>259628680</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>90746401</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>82851276.43</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>73159142.3</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>112973137.56</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>126452320.6999</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>85373746.2378</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>109749232.6139</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>100773052.9403</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>110769056.7186</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>106845033.1688</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>101415202.7206</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>125282602.2001</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>131326371.6118</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>138821541.8299</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>159232343.3587</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>200543293.4334</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>147954188.863</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>125379878.792</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>191877073.0185</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>180345219.0057</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>178268920.2992</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>39821202.705</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -741,41 +821,83 @@
         <f>M5</f>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3" t="n">
-        <v>29333.3301</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>233238.6719</v>
-      </c>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>466718</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3094673</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>788322</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1403946</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>996225</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>640819</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>10742735</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>5816277.9902</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>903999.2196</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1417854.4342</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4871657.7312</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5447330.1762</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>3765531.4416</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1328294.7401</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2630661.06</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>500809.66</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2060642.7506</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1178426.2855</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>7297337.4281</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>397189.3715</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>731199.7288</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1785057.6459</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>2756778.76</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>1788841.3737</v>
+      </c>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -785,67 +907,85 @@
         <f>M6</f>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3" t="n">
-        <v>111571.7305</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>107593.5689</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3" t="n">
-        <v>73442.8896</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>7123.0996</v>
-      </c>
-      <c r="AA6" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>447898</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>636409</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>146354</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1724313</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>129853</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>693282</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>713352</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>868397.6598</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>414567.1453</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>950617.5171</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>980894.2657</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2407506.0315</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2204445.4346</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1401348.94</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1360278.66</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>900242.56</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>460678.6193</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1422329.6003</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>746815.4843</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1827077.2013</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1508655.9106</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3442054.7215</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>495302</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>234976.2558</v>
+      </c>
+      <c r="AK6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AB6" s="3" t="n">
-        <v>163919.51</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>32330.74</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>100663.3086</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>79695.789</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>307083.2735</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>116915.0801</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>361041.875</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>181055.9375</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
-        <v>274964.0267</v>
-      </c>
-      <c r="AK6" s="3" t="n">
-        <v>119731.3632</v>
-      </c>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -855,67 +995,71 @@
         <f>M7</f>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3" t="n">
-        <v>1173057.25</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>34294</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3" t="n">
-        <v>18234</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>17152.62</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>17554.1797</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>316388.711</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>3287.97</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>103878.57</v>
-      </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3" t="n">
-        <v>470236.8359</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>15430.12</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>602947.6285</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>134882.0006</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
-        <v>90024.42</v>
-      </c>
-      <c r="AK7" s="3" t="n">
-        <v>693401.483</v>
-      </c>
-      <c r="AL7" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="n">
+        <v>28649</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="n">
+        <v>37000</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>218095</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>114663</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>914038</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1232091.06</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>5180262.5985</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>16296735.5952</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>278947.3956</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>-474527.8438</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>16504.15</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>158560.2</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>888324.7</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>121122</v>
+      </c>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4" t="n">
+        <v>-136686</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4" t="n">
+        <v>1733942.2207</v>
+      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4" t="n">
+        <v>55556.49</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" s="3"/>
+      <c r="AM7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -925,47 +1069,51 @@
         <f>M8</f>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3" t="n">
-        <v>126572</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="n">
-        <v>46300</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>75895</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>72237</v>
-      </c>
-      <c r="S8" s="3" t="n">
-        <v>20287</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>22412</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="n">
+        <v>26829</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="n">
+        <v>239000</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1064440</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4" t="n">
+        <v>60821.05</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4" t="n">
+        <v>2301292</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>2001829.5079</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>628183.7344</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>24691.0996</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -975,43 +1123,85 @@
         <f>M9</f>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3" t="n">
-        <v>1574074.7307</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
-        <v>34942.6992</v>
-      </c>
-      <c r="AK9" s="3" t="n">
-        <v>2427452.5649</v>
-      </c>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>35640</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>54433</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>251741</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>178409</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>261107</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>324884</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>1041651</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>276274.5996</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>176955.2696</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>1193231.7992</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>127770.9815</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>110004.1693</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>802730.192</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>33372.37</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>707689.04</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>3309254.4576</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>1826765.9216</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>539023.8327</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>771095.0313</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>2268594.46</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>2094652.293</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>315748.8385</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>155682.43</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>116682.9707</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>79072.4727</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1021,41 +1211,87 @@
         <f>M10</f>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3" t="n">
-        <v>40679</v>
-      </c>
-      <c r="V10" s="3" t="n">
-        <v>95240</v>
-      </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f>Sum(M2:M9)</f>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f>Sum(N2:N9)</f>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="4" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="4" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="4" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="4" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="4" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="4" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1190,7 +1426,7 @@
         <f>L13</f>
       </c>
       <c r="B13" t="str">
-        <f>M13</f>
+        <f>AG13</f>
       </c>
       <c r="C13" t="str">
         <f>AI13</f>
@@ -1217,64 +1453,82 @@
         <f>"Share "&amp;AK13</f>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="n">
-        <v>46879</v>
-      </c>
-      <c r="R13" s="3" t="n">
-        <v>338840</v>
-      </c>
-      <c r="S13" s="3" t="n">
-        <v>414898</v>
-      </c>
-      <c r="T13" s="3" t="n">
-        <v>974677</v>
-      </c>
-      <c r="U13" s="3" t="n">
-        <v>448551</v>
-      </c>
-      <c r="V13" s="3" t="n">
-        <v>398721</v>
-      </c>
-      <c r="W13" s="3" t="n">
-        <v>54500</v>
-      </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3" t="n">
-        <v>161235</v>
-      </c>
-      <c r="Z13" s="3" t="n">
-        <v>120391</v>
-      </c>
-      <c r="AA13" s="3" t="n">
-        <v>461088</v>
-      </c>
-      <c r="AB13" s="3" t="n">
-        <v>1396285</v>
-      </c>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3" t="n">
-        <v>719023</v>
-      </c>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3" t="n">
-        <v>543545.1016</v>
-      </c>
-      <c r="AH13" s="3" t="n">
-        <v>19320</v>
-      </c>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3" t="n">
-        <v>18960</v>
+        <v>1</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
@@ -1283,16 +1537,16 @@
       <c r="A14" t="str">
         <f>L14</f>
       </c>
-      <c r="B14" s="2" t="str">
-        <f>M14</f>
-      </c>
-      <c r="C14" s="2" t="str">
+      <c r="B14" s="4" t="str">
+        <f>AG14</f>
+      </c>
+      <c r="C14" s="4" t="str">
         <f>AI14</f>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="4" t="str">
         <f>AJ14</f>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="4" t="str">
         <f>AK14</f>
       </c>
       <c r="F14" s="1" t="str">
@@ -1311,68 +1565,62 @@
         <f>AK14/Sum(AK13:AK$21)</f>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3" t="n">
-        <v>33300</v>
-      </c>
-      <c r="V14" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4" t="n">
+        <v>2660684.27203568</v>
+      </c>
+      <c r="U14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="n">
-        <v>27450</v>
-      </c>
-      <c r="X14" s="3" t="n">
-        <v>89110.5</v>
-      </c>
-      <c r="Y14" s="3" t="n">
-        <v>132333</v>
-      </c>
-      <c r="Z14" s="3" t="n">
-        <v>105614</v>
-      </c>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3" t="n">
-        <v>117750</v>
-      </c>
-      <c r="AC14" s="3" t="n">
+      <c r="V14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
+      <c r="W14" s="4" t="n">
+        <v>116929.556712038</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>-65949.941361431</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>63743.6587508483</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>L15</f>
       </c>
-      <c r="B15" s="2" t="str">
-        <f>M15</f>
-      </c>
-      <c r="C15" s="2" t="str">
+      <c r="B15" s="4" t="str">
+        <f>AG15</f>
+      </c>
+      <c r="C15" s="4" t="str">
         <f>AI15</f>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="4" t="str">
         <f>AJ15</f>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="4" t="str">
         <f>AK15</f>
       </c>
       <c r="F15" s="1" t="str">
@@ -1391,76 +1639,98 @@
         <f>AK15/Sum(AK13:AK$21)</f>
       </c>
       <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3" t="n">
-        <v>5004477</v>
-      </c>
-      <c r="T15" s="3" t="n">
-        <v>2599429</v>
-      </c>
-      <c r="U15" s="3" t="n">
-        <v>6543558.14</v>
-      </c>
-      <c r="V15" s="3" t="n">
-        <v>8157983.36</v>
-      </c>
-      <c r="W15" s="3" t="n">
-        <v>3246.28</v>
-      </c>
-      <c r="X15" s="3" t="n">
-        <v>9949922.4609</v>
-      </c>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
-        <v>2809063</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>4298707.87</v>
-      </c>
-      <c r="AB15" s="3" t="n">
-        <v>857222.3</v>
-      </c>
-      <c r="AC15" s="3" t="n">
-        <v>643295.49</v>
-      </c>
-      <c r="AD15" s="3" t="n">
-        <v>243375.9499</v>
-      </c>
-      <c r="AE15" s="3" t="n">
-        <v>34783</v>
-      </c>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>212789.47849334</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="n">
+        <v>74819.1819136848</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>120333.843929676</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>111803.861929534</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>30471.6880932486</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>1739136.35191354</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>48553.3354326391</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>154750.154944015</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>172756.397782264</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>23347.6842398814</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>160567.685441163</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>729681.462581247</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>4232.44224151368</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>338547.137802675</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>40453.1922072004</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>124953.936201521</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>97284.6496509884</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>947378.927816606</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>155176.050166622</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>1115712.51232384</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>353497.196185247</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>405570.277471541</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>869014.6978</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>L16</f>
       </c>
-      <c r="B16" s="2" t="str">
-        <f>M16</f>
-      </c>
-      <c r="C16" s="2" t="str">
+      <c r="B16" s="4" t="str">
+        <f>AG16</f>
+      </c>
+      <c r="C16" s="4" t="str">
         <f>AI16</f>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="4" t="str">
         <f>AJ16</f>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="4" t="str">
         <f>AK16</f>
       </c>
       <c r="F16" s="1" t="str">
@@ -1481,98 +1751,100 @@
       <c r="L16" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>405639</v>
-      </c>
-      <c r="O16" s="3" t="n">
-        <v>35785</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="n">
-        <v>124147</v>
-      </c>
-      <c r="R16" s="3" t="n">
-        <v>152041</v>
-      </c>
-      <c r="S16" s="3" t="n">
-        <v>144576</v>
-      </c>
-      <c r="T16" s="3" t="n">
-        <v>2177653</v>
-      </c>
-      <c r="U16" s="3" t="n">
-        <v>2565042</v>
-      </c>
-      <c r="V16" s="3" t="n">
-        <v>14400726</v>
-      </c>
-      <c r="W16" s="3" t="n">
-        <v>14019769.8591</v>
-      </c>
-      <c r="X16" s="3" t="n">
-        <v>10667272.3105</v>
-      </c>
-      <c r="Y16" s="3" t="n">
-        <v>13477312.0245</v>
-      </c>
-      <c r="Z16" s="3" t="n">
-        <v>18543088.3063</v>
-      </c>
-      <c r="AA16" s="3" t="n">
-        <v>15523914.66</v>
-      </c>
-      <c r="AB16" s="3" t="n">
-        <v>7120936.09</v>
-      </c>
-      <c r="AC16" s="3" t="n">
-        <v>7435945.4747</v>
-      </c>
-      <c r="AD16" s="3" t="n">
-        <v>13376652.2649</v>
-      </c>
-      <c r="AE16" s="3" t="n">
-        <v>19468178.043</v>
-      </c>
-      <c r="AF16" s="3" t="n">
-        <v>22945127.5759</v>
-      </c>
-      <c r="AG16" s="3" t="n">
-        <v>15422427.2685</v>
-      </c>
-      <c r="AH16" s="3" t="n">
-        <v>16072718.7988</v>
-      </c>
-      <c r="AI16" s="3" t="n">
-        <v>8736048.7199</v>
-      </c>
-      <c r="AJ16" s="3" t="n">
-        <v>11295230.0031</v>
-      </c>
-      <c r="AK16" s="3" t="n">
-        <v>18990693.3871</v>
-      </c>
-      <c r="AL16" s="3" t="n">
+      <c r="M16" s="4" t="n">
+        <v>68305846.2520567</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>84651956.8787766</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>419550873.411012</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>143881194.480714</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>128231967.975766</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>109887246.282604</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>164350266.910106</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>179030790.901554</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>118413512.08988</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>150681462.349584</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>137169564.762641</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>147809125.079714</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>140031921.880107</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>130546807.886428</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>158380771.032096</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>164319497.564434</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>172319967.64718</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>194374921.575305</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>239486595.784209</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>173477743.17481</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>145113509.072436</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>214687757.134133</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>188595398.648997</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>178268920.2992</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>38785400.270793</v>
+      </c>
+      <c r="AL16" s="4" t="n">
         <v>-464557.0908</v>
       </c>
-      <c r="AM16" s="3"/>
+      <c r="AM16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>L17</f>
       </c>
-      <c r="B17" s="2" t="str">
-        <f>M17</f>
-      </c>
-      <c r="C17" s="2" t="str">
+      <c r="B17" s="4" t="str">
+        <f>AG17</f>
+      </c>
+      <c r="C17" s="4" t="str">
         <f>AI17</f>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="4" t="str">
         <f>AJ17</f>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="E17" s="4" t="str">
         <f>AK17</f>
       </c>
       <c r="F17" s="1" t="str">
@@ -1591,70 +1863,98 @@
         <f>AK17/Sum(AK13:AK$21)</f>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3" t="n">
-        <v>40224225</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <v>51537624</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>259628680</v>
-      </c>
-      <c r="Q17" s="3" t="n">
-        <v>90479798</v>
-      </c>
-      <c r="R17" s="3" t="n">
-        <v>82360395.43</v>
-      </c>
-      <c r="S17" s="3" t="n">
-        <v>50996409.02</v>
-      </c>
-      <c r="T17" s="3" t="n">
-        <v>52813584.03</v>
-      </c>
-      <c r="U17" s="3" t="n">
-        <v>2352996.9899</v>
-      </c>
-      <c r="V17" s="3" t="n">
-        <v>159944.76</v>
-      </c>
-      <c r="W17" s="3" t="n">
-        <v>99052.09</v>
-      </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>784633.88287658</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>5079558.05965656</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>1273900.80182635</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>2225999.32603851</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>1541894.07576104</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>962529.535773032</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>15628240.5067917</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>8234667.76193085</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>1253848.25237939</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>1946659.43857397</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>6631169.25768976</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>7268863.08520172</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>4935134.4562191</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>1709848.559196</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>3325650.32726131</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>626628.077031415</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>2557887.53989553</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>1438504.96698619</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>8714400.11293493</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>465708.448745871</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>846283.785734144</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>1997268.44028133</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>2882892.00066265</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>1788841.3737</v>
+      </c>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>L18</f>
       </c>
-      <c r="B18" s="2" t="str">
-        <f>M18</f>
-      </c>
-      <c r="C18" s="2" t="str">
+      <c r="B18" s="4" t="str">
+        <f>AG18</f>
+      </c>
+      <c r="C18" s="4" t="str">
         <f>AI18</f>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="4" t="str">
         <f>AJ18</f>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="E18" s="4" t="str">
         <f>AK18</f>
       </c>
       <c r="F18" s="1" t="str">
@@ -1673,60 +1973,100 @@
         <f>AK18/Sum(AK13:AK$21)</f>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3" t="n">
-        <v>164013.0156</v>
-      </c>
-      <c r="X18" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>752994.19965087</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>1044593.87637659</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>236502.949239642</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>2733951.00372767</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>200978.264367787</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>1041330.54984293</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>1037765.20802206</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>1229474.62719975</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>575005.242657531</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>1305161.17698683</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>1335166.84846244</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>3212552.04911749</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>2889163.13404269</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>1803887.64154065</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>1719648.05332831</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>1126410.50940319</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>571842.98436041</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>1736237.74341974</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>891838.839144919</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>2142266.00762999</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>1746104.36123668</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>3851252.24429779</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>517960.379857328</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>234976.2558</v>
+      </c>
+      <c r="AK18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3" t="n">
-        <v>-1855.83</v>
-      </c>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3" t="n">
-        <v>12311.92</v>
-      </c>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <f>L19</f>
       </c>
-      <c r="B19" s="2" t="str">
-        <f>M19</f>
-      </c>
-      <c r="C19" s="2" t="str">
+      <c r="B19" s="4" t="str">
+        <f>AG19</f>
+      </c>
+      <c r="C19" s="4" t="str">
         <f>AI19</f>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="4" t="str">
         <f>AJ19</f>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="E19" s="4" t="str">
         <f>AK19</f>
       </c>
       <c r="F19" s="1" t="str">
@@ -1745,54 +2085,84 @@
         <f>AK19/Sum(AK13:AK$21)</f>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3" t="n">
-        <v>179665</v>
-      </c>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="n">
+        <v>47024.1149391554</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="n">
+        <v>57266.2609382002</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>327585.291797558</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>166808.63311161</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>1294092.07477047</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>1708912.11945607</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>7112300.69774517</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>22182677.446219</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>372224.62399084</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>-621919.840185337</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>21244.9814384797</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>200449.913156285</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>1111498.52528905</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>150349.425933737</v>
+      </c>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4" t="n">
+        <v>-163228.918159916</v>
+      </c>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4" t="n">
+        <v>2006848.64747759</v>
+      </c>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4" t="n">
+        <v>58098.0102320197</v>
+      </c>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <f>L20</f>
       </c>
-      <c r="B20" s="2" t="str">
-        <f>M20</f>
-      </c>
-      <c r="C20" s="2" t="str">
+      <c r="B20" s="4" t="str">
+        <f>AG20</f>
+      </c>
+      <c r="C20" s="4" t="str">
         <f>AI20</f>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="4" t="str">
         <f>AJ20</f>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="E20" s="4" t="str">
         <f>AK20</f>
       </c>
       <c r="F20" s="1" t="str">
@@ -1811,98 +2181,66 @@
         <f>AK20/Sum(AK13:AK$21)</f>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="3" t="n">
-        <v>76819</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <v>44220</v>
-      </c>
-      <c r="P20" s="3" t="n">
-        <v>34820</v>
-      </c>
-      <c r="Q20" s="3" t="n">
-        <v>-43066</v>
-      </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3" t="n">
-        <v>169153</v>
-      </c>
-      <c r="T20" s="3" t="n">
-        <v>206679</v>
-      </c>
-      <c r="U20" s="3" t="n">
-        <v>878187</v>
-      </c>
-      <c r="V20" s="3" t="n">
-        <v>521104.0394</v>
-      </c>
-      <c r="W20" s="3" t="n">
-        <v>859261.8161</v>
-      </c>
-      <c r="X20" s="3" t="n">
-        <v>2858357.0024</v>
-      </c>
-      <c r="Y20" s="3" t="n">
-        <v>3059194.6249</v>
-      </c>
-      <c r="Z20" s="3" t="n">
-        <v>2510830.1203</v>
-      </c>
-      <c r="AA20" s="3" t="n">
-        <v>903201.8101</v>
-      </c>
-      <c r="AB20" s="3" t="n">
-        <v>182036.28</v>
-      </c>
-      <c r="AC20" s="3" t="n">
-        <v>278074.36</v>
-      </c>
-      <c r="AD20" s="3" t="n">
-        <v>987504.4602</v>
-      </c>
-      <c r="AE20" s="3" t="n">
-        <v>410733.0425</v>
-      </c>
-      <c r="AF20" s="3" t="n">
-        <v>35337.9199</v>
-      </c>
-      <c r="AG20" s="3" t="n">
-        <v>275507.6923</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>420716.5193</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>834025.0006</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
-        <v>1945058.02</v>
-      </c>
-      <c r="AK20" s="3" t="n">
-        <v>1329315.1934</v>
-      </c>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="n">
+        <v>43354.7263836339</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4" t="n">
+        <v>347690.73993943</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>1507030.74496758</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4" t="n">
+        <v>76889.2457916554</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4" t="n">
+        <v>2809187.14493964</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>2390562.78561896</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>736551.613579147</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>28577.2497176927</v>
+      </c>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <f>L21</f>
       </c>
-      <c r="B21" s="2" t="str">
-        <f>M21</f>
-      </c>
-      <c r="C21" s="2" t="str">
+      <c r="B21" s="4" t="str">
+        <f>AG21</f>
+      </c>
+      <c r="C21" s="4" t="str">
         <f>AI21</f>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D21" s="4" t="str">
         <f>AJ21</f>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="E21" s="4" t="str">
         <f>AK21</f>
       </c>
       <c r="F21" s="1" t="str">
@@ -1921,94 +2259,100 @@
         <f>AK21/Sum(AK13:AK$21)</f>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>40800</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="n">
-        <v>36850</v>
-      </c>
-      <c r="R21" s="3" t="n">
-        <v>1875</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="n">
-        <v>128768</v>
-      </c>
-      <c r="U21" s="3" t="n">
-        <v>4936118.9902</v>
-      </c>
-      <c r="V21" s="3" t="n">
-        <v>382895.1802</v>
-      </c>
-      <c r="W21" s="3" t="n">
-        <v>394579.6025</v>
-      </c>
-      <c r="X21" s="3" t="n">
-        <v>2013300.7288</v>
-      </c>
-      <c r="Y21" s="3" t="n">
-        <v>2388135.5513</v>
-      </c>
-      <c r="Z21" s="3" t="n">
-        <v>1254701.3213</v>
-      </c>
-      <c r="AA21" s="3" t="n">
-        <v>426948.76</v>
-      </c>
-      <c r="AB21" s="3" t="n">
-        <v>2268959.78</v>
-      </c>
-      <c r="AC21" s="3" t="n">
-        <v>222735.3</v>
-      </c>
-      <c r="AD21" s="3" t="n">
-        <v>1073138.2904</v>
-      </c>
-      <c r="AE21" s="3" t="n">
-        <v>767693.243</v>
-      </c>
-      <c r="AF21" s="3" t="n">
-        <v>7261999.5082</v>
-      </c>
-      <c r="AG21" s="3" t="n">
-        <v>121681.6792</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>310483.2095</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>951032.6453</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
-        <v>799408.82</v>
-      </c>
-      <c r="AK21" s="3" t="n">
-        <v>459526.1803</v>
-      </c>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>59917.0196686679</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>89345.6542456297</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>406804.658188616</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>282872.926564985</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>404124.907967315</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>487985.602330901</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>1515365.71945041</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>391148.693820985</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>245437.220217356</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>1638261.22646355</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>173918.417774178</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>146788.466933144</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>1052064.36090818</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>42958.6123010319</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>894652.041367596</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>4140638.49561833</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>2267574.90487173</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>657986.392703289</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>920833.207187168</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>2659949.34056305</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>2424331.14031093</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>353285.616092012</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>162804.371030022</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>116682.9707</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>77015.6925392355</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <f>L22</f>
       </c>
-      <c r="B22" s="2" t="str">
-        <f>M22</f>
-      </c>
-      <c r="C22" s="2" t="str">
+      <c r="B22" s="4" t="str">
+        <f>AG22</f>
+      </c>
+      <c r="C22" s="4" t="str">
         <f>AI22</f>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D22" s="4" t="str">
         <f>AJ22</f>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="E22" s="4" t="str">
         <f>AK22</f>
       </c>
       <c r="F22" s="1" t="str">
@@ -2027,53 +2371,87 @@
         <f>Sum(J$13:J$21)</f>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="3" t="n">
-        <v>349099</v>
-      </c>
-      <c r="O22" s="3" t="n">
-        <v>3050453</v>
-      </c>
-      <c r="P22" s="3" t="n">
-        <v>753502</v>
-      </c>
-      <c r="Q22" s="3" t="n">
-        <v>1410162</v>
-      </c>
-      <c r="R22" s="3" t="n">
-        <v>994350</v>
-      </c>
-      <c r="S22" s="3" t="n">
-        <v>471666</v>
-      </c>
-      <c r="T22" s="3" t="n">
-        <v>10407288</v>
-      </c>
-      <c r="U22" s="3" t="n">
-        <v>1972</v>
-      </c>
-      <c r="V22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="M22" s="4" t="str">
+        <f>Sum(M14:M21)</f>
+      </c>
+      <c r="N22" s="4" t="str">
+        <f>Sum(N14:N21)</f>
+      </c>
+      <c r="O22" s="4" t="str">
+        <f>Sum(O14:O21)</f>
+      </c>
+      <c r="P22" s="4" t="str">
+        <f>Sum(P14:P21)</f>
+      </c>
+      <c r="Q22" s="4" t="str">
+        <f>Sum(Q14:Q21)</f>
+      </c>
+      <c r="R22" s="4" t="str">
+        <f>Sum(R14:R21)</f>
+      </c>
+      <c r="S22" s="4" t="str">
+        <f>Sum(S14:S21)</f>
+      </c>
+      <c r="T22" s="4" t="str">
+        <f>Sum(T14:T21)</f>
+      </c>
+      <c r="U22" s="4" t="str">
+        <f>Sum(U14:U21)</f>
+      </c>
+      <c r="V22" s="4" t="str">
+        <f>Sum(V14:V21)</f>
+      </c>
+      <c r="W22" s="4" t="str">
+        <f>Sum(W14:W21)</f>
+      </c>
+      <c r="X22" s="4" t="str">
+        <f>Sum(X14:X21)</f>
+      </c>
+      <c r="Y22" s="4" t="str">
+        <f>Sum(Y14:Y21)</f>
+      </c>
+      <c r="Z22" s="4" t="str">
+        <f>Sum(Z14:Z21)</f>
+      </c>
+      <c r="AA22" s="4" t="str">
+        <f>Sum(AA14:AA21)</f>
+      </c>
+      <c r="AB22" s="4" t="str">
+        <f>Sum(AB14:AB21)</f>
+      </c>
+      <c r="AC22" s="4" t="str">
+        <f>Sum(AC14:AC21)</f>
+      </c>
+      <c r="AD22" s="4" t="str">
+        <f>Sum(AD14:AD21)</f>
+      </c>
+      <c r="AE22" s="4" t="str">
+        <f>Sum(AE14:AE21)</f>
+      </c>
+      <c r="AF22" s="4" t="str">
+        <f>Sum(AF14:AF21)</f>
+      </c>
+      <c r="AG22" s="4" t="str">
+        <f>Sum(AG14:AG21)</f>
+      </c>
+      <c r="AH22" s="4" t="str">
+        <f>Sum(AH14:AH21)</f>
+      </c>
+      <c r="AI22" s="4" t="str">
+        <f>Sum(AI14:AI21)</f>
+      </c>
+      <c r="AJ22" s="4" t="str">
+        <f>Sum(AJ14:AJ21)</f>
+      </c>
+      <c r="AK22" s="4" t="str">
+        <f>Sum(AK14:AK21)</f>
+      </c>
+      <c r="AL22" s="4" t="str">
+        <f>Sum(AL14:AL21)</f>
+      </c>
+      <c r="AM22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
